--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-rp2040-DDS/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{812B6AA3-9460-934E-8CA7-6AEB749EFE1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479AB53-D041-1348-B8B3-183F3E748978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="760" windowWidth="21600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="1360" windowWidth="28040" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rp2040 PinOut" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="126">
   <si>
     <t>Pin</t>
   </si>
@@ -262,12 +262,6 @@
     <t>FT4 LED</t>
   </si>
   <si>
-    <t>JS8 LED</t>
-  </si>
-  <si>
-    <t>WSPR LED</t>
-  </si>
-  <si>
     <t>TX LED</t>
   </si>
   <si>
@@ -277,9 +271,6 @@
     <t>[PDX+] CAL</t>
   </si>
   <si>
-    <t xml:space="preserve">CAL </t>
-  </si>
-  <si>
     <t xml:space="preserve">[PDX+] CAT Rx </t>
   </si>
   <si>
@@ -331,45 +322,6 @@
     <t>[PDX+] ¿SWR Analog?</t>
   </si>
   <si>
-    <t>PDX</t>
-  </si>
-  <si>
-    <t>UART Rx</t>
-  </si>
-  <si>
-    <t>UART Tx</t>
-  </si>
-  <si>
-    <t>TFT SPI SCK</t>
-  </si>
-  <si>
-    <t>TFT SPI MOSI</t>
-  </si>
-  <si>
-    <t>TFT SPI CS</t>
-  </si>
-  <si>
-    <t>TFT SPI RST</t>
-  </si>
-  <si>
-    <t>TFT SPI DC</t>
-  </si>
-  <si>
-    <t>+5Vcc</t>
-  </si>
-  <si>
-    <t>FSK In [Digital or Analog]</t>
-  </si>
-  <si>
-    <t>ddsPIO CLK1 (RX)</t>
-  </si>
-  <si>
-    <t>ddsPIO CLK0 (TX)</t>
-  </si>
-  <si>
-    <t>ADX-rp2040-DDS</t>
-  </si>
-  <si>
     <t>CAL (out)</t>
   </si>
   <si>
@@ -388,30 +340,9 @@
     <t>FT4 Led On</t>
   </si>
   <si>
-    <t>JS8 Led On</t>
-  </si>
-  <si>
-    <t>WSPR Led On</t>
-  </si>
-  <si>
-    <t>Tx Enabled (down)</t>
-  </si>
-  <si>
     <t>Calibration Clock</t>
   </si>
   <si>
-    <t>Up mode Switch</t>
-  </si>
-  <si>
-    <t>Down mode Switch</t>
-  </si>
-  <si>
-    <t>ATU (out)</t>
-  </si>
-  <si>
-    <t>ATU On</t>
-  </si>
-  <si>
     <t>(A) GND</t>
   </si>
   <si>
@@ -427,26 +358,68 @@
     <t>VBUS (+5 Vcc) in</t>
   </si>
   <si>
-    <t>dds CLK0 (TX)</t>
-  </si>
-  <si>
-    <t>dds CLK1 (RX)</t>
-  </si>
-  <si>
-    <t>dds Output (8-PSK)</t>
-  </si>
-  <si>
-    <t>dds Output (fbase MHz)</t>
-  </si>
-  <si>
     <t>not used</t>
+  </si>
+  <si>
+    <t>ADX-ddsPIO</t>
+  </si>
+  <si>
+    <t>Not Used</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>RFOUT</t>
+  </si>
+  <si>
+    <t>DDS RF Output</t>
+  </si>
+  <si>
+    <t>JS8</t>
+  </si>
+  <si>
+    <t>WSPR</t>
+  </si>
+  <si>
+    <t>WSPR LED On</t>
+  </si>
+  <si>
+    <t>JS8 LED On</t>
+  </si>
+  <si>
+    <t>TX Button</t>
+  </si>
+  <si>
+    <t>UP Button</t>
+  </si>
+  <si>
+    <t>DOWN Button</t>
+  </si>
+  <si>
+    <t>SYNC SW</t>
+  </si>
+  <si>
+    <t>SYNC Button</t>
+  </si>
+  <si>
+    <t>BEACON JMP</t>
+  </si>
+  <si>
+    <t>Beacon Select Jumper</t>
+  </si>
+  <si>
+    <t>ATU Enable pulse</t>
+  </si>
+  <si>
+    <t>Audio FSK In</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -469,14 +442,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="17">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -498,12 +465,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -533,48 +494,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -737,21 +662,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="dotted">
-        <color indexed="64"/>
-      </top>
-      <bottom style="dotted">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -773,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -784,54 +694,40 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -840,14 +736,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -864,38 +752,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1179,10 +1074,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:I43"/>
+  <dimension ref="B2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1192,13 +1087,12 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1214,67 +1108,54 @@
       <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="52" t="s">
-        <v>98</v>
-      </c>
-      <c r="H3" s="52" t="s">
+      <c r="G3" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="I3" s="52" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B4" s="43">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="45"/>
+      <c r="E4" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G4" s="53" t="s">
+      <c r="F4" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="59" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+      <c r="H4" s="47"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B5" s="43">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="45"/>
+      <c r="E5" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G5" s="53" t="s">
-        <v>108</v>
-      </c>
-      <c r="H5" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F5" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="47"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <f t="shared" ref="B6:B43" si="0">B5+1</f>
         <v>3</v>
@@ -1285,11 +1166,10 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1306,17 +1186,14 @@
       <c r="F7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="55" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="60" t="s">
-        <v>112</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G7" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="35" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1333,17 +1210,14 @@
       <c r="F8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1360,17 +1234,14 @@
       <c r="F9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="55" t="s">
+      <c r="G9" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1387,17 +1258,14 @@
       <c r="F10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="55" t="s">
+      <c r="G10" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="60" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="H10" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1408,38 +1276,34 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B12" s="12">
+      <c r="G11" s="48"/>
+      <c r="H11" s="48"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="H12" s="60" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="60" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G12" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="H12" s="38" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1456,17 +1320,14 @@
       <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="55" t="s">
-        <v>76</v>
-      </c>
-      <c r="H13" s="60" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="60" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G13" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1481,44 +1342,38 @@
         <v>68</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="G14" s="57" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="I14" s="61" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="16">
+        <v>88</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="19" t="s">
-        <v>92</v>
-      </c>
-      <c r="G15" s="55" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="I15" s="60" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F15" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1529,16 +1384,15 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="49">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6"/>
@@ -1546,24 +1400,21 @@
         <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G17" s="57" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" s="61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B18" s="4">
+        <v>80</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="49">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="50" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="6"/>
@@ -1571,69 +1422,64 @@
         <v>58</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G18" s="57" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="I18" s="61" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B19" s="20">
+        <v>81</v>
+      </c>
+      <c r="G18" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="49">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I19" s="62"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B20" s="20">
+      <c r="F19" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H19" s="36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="49">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="51" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>82</v>
-      </c>
-      <c r="G20" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="H20" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I20" s="62"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F20" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" s="36" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1644,34 +1490,32 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B22" s="24">
+      <c r="G21" s="48"/>
+      <c r="H21" s="48"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="49">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26" t="s">
+      <c r="D22" s="51"/>
+      <c r="E22" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I22" s="62"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F22" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1684,65 +1528,56 @@
         <v>46</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="60" t="s">
-        <v>123</v>
-      </c>
-      <c r="I23" s="60" t="s">
+      <c r="H23" s="35" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="32">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="43">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="33" t="s">
+      <c r="C24" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34" t="s">
+      <c r="D24" s="40"/>
+      <c r="E24" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="35" t="s">
+      <c r="F24" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="55" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I24" s="62"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B25" s="32">
+      <c r="G24" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="53"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="43">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C25" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34" t="s">
+      <c r="D25" s="40"/>
+      <c r="E25" s="40" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="35" t="s">
+      <c r="F25" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I25" s="62"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G25" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="H25" s="53"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1753,109 +1588,96 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B27" s="44">
+      <c r="G26" s="48"/>
+      <c r="H26" s="48"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="54">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="45" t="s">
+      <c r="C27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46" t="s">
+      <c r="D27" s="56"/>
+      <c r="E27" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="47" t="s">
+      <c r="F27" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="53"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="54">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C28" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H28" s="53"/>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="54">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C29" s="55" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E29" s="56" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="54">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C30" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="H27" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I27" s="62"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B28" s="24">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E28" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G28" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="H28" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I28" s="62"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B29" s="24">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="H29" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I29" s="62"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B30" s="24">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="57" t="s">
-        <v>104</v>
-      </c>
-      <c r="H30" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I30" s="62"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="G30" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" s="53"/>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1866,186 +1688,170 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="54"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B32" s="24">
+      <c r="G31" s="48"/>
+      <c r="H31" s="48"/>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="54">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="25" t="s">
+      <c r="C32" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26" t="s">
+      <c r="D32" s="56"/>
+      <c r="E32" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="57" t="s">
+      <c r="F32" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="G32" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" s="53"/>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B33" s="54">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C33" s="55" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" s="56"/>
+      <c r="E33" s="56"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" s="53"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B34" s="54">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C34" s="55" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="56"/>
+      <c r="E34" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="G34" s="53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" s="53"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="58" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="26">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" s="37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="43">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="44" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="46" t="s">
+        <v>94</v>
+      </c>
+      <c r="G37" s="47"/>
+      <c r="H37" s="47"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="54">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="55" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="53"/>
+      <c r="H38" s="53"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="54">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="56"/>
+      <c r="E39" s="56"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H32" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I32" s="62"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B33" s="28">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C33" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="D33" s="30"/>
-      <c r="E33" s="30"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H33" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I33" s="62"/>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B34" s="44">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-      <c r="C34" s="45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="47" t="s">
-        <v>71</v>
-      </c>
-      <c r="G34" s="57" t="s">
-        <v>58</v>
-      </c>
-      <c r="H34" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I34" s="62"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B35" s="48">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="G35" s="57" t="s">
-        <v>107</v>
-      </c>
-      <c r="H35" s="62" t="s">
-        <v>134</v>
-      </c>
-      <c r="I35" s="62"/>
-    </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B36" s="36">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="C36" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="63" t="s">
-        <v>125</v>
-      </c>
-      <c r="I36" s="63" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B37" s="4">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G37" s="58"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="55"/>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B38" s="28">
-        <f t="shared" si="0"/>
+      <c r="H39" s="42"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="54">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
-      <c r="F38" s="31"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="55"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B39" s="28">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C39" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="30"/>
-      <c r="E39" s="30"/>
-      <c r="F39" s="31"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="I39" s="64"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B40" s="28">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C40" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="30"/>
-      <c r="E40" s="30"/>
-      <c r="F40" s="31"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="64" t="s">
-        <v>127</v>
-      </c>
-      <c r="I40" s="64"/>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="D40" s="56"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H40" s="42"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2056,45 +1862,40 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="11"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B42" s="28">
+      <c r="G41" s="48"/>
+      <c r="H41" s="48"/>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="22">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="30"/>
-      <c r="E42" s="30"/>
-      <c r="F42" s="31"/>
-      <c r="G42" s="55"/>
-      <c r="H42" s="64" t="s">
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="25"/>
+      <c r="G42" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="I42" s="64"/>
-    </row>
-    <row r="43" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="40">
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="30">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="43"/>
-      <c r="G43" s="56" t="s">
+      <c r="D43" s="32"/>
+      <c r="E43" s="32"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="39" t="s">
         <v>106</v>
       </c>
-      <c r="H43" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="I43" s="65"/>
+      <c r="H43" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E479AB53-D041-1348-B8B3-183F3E748978}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B01D3D6-E2EB-C24F-9ED4-164D9D7FF2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1360" windowWidth="28040" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rp2040 PinOut" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
   <si>
     <t>Pin</t>
   </si>
@@ -310,9 +310,6 @@
     <t>[PDX+] ¿LPF?</t>
   </si>
   <si>
-    <t>TX SW</t>
-  </si>
-  <si>
     <t>UP SW</t>
   </si>
   <si>
@@ -370,27 +367,9 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>RFOUT</t>
-  </si>
-  <si>
-    <t>DDS RF Output</t>
-  </si>
-  <si>
-    <t>JS8</t>
-  </si>
-  <si>
-    <t>WSPR</t>
-  </si>
-  <si>
-    <t>WSPR LED On</t>
-  </si>
-  <si>
     <t>JS8 LED On</t>
   </si>
   <si>
-    <t>TX Button</t>
-  </si>
-  <si>
     <t>UP Button</t>
   </si>
   <si>
@@ -406,13 +385,40 @@
     <t>BEACON JMP</t>
   </si>
   <si>
-    <t>Beacon Select Jumper</t>
-  </si>
-  <si>
     <t>ATU Enable pulse</t>
   </si>
   <si>
     <t>Audio FSK In</t>
+  </si>
+  <si>
+    <t>ddsPIOTX</t>
+  </si>
+  <si>
+    <t>ddsPIORX</t>
+  </si>
+  <si>
+    <t>JS8LED</t>
+  </si>
+  <si>
+    <t>WSPR LED</t>
+  </si>
+  <si>
+    <t>TXSW</t>
+  </si>
+  <si>
+    <t>TXSW Switch</t>
+  </si>
+  <si>
+    <t>WSPR LED on</t>
+  </si>
+  <si>
+    <t>RF Signal Out (TX)</t>
+  </si>
+  <si>
+    <t>RF Signal Out (RX)</t>
+  </si>
+  <si>
+    <t>Beacon select Jumper</t>
   </si>
 </sst>
 </file>
@@ -683,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -760,9 +766,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -772,25 +792,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,7 +1078,7 @@
   <dimension ref="B2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1087,8 +1088,8 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="34.33203125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -1109,51 +1110,55 @@
         <v>72</v>
       </c>
       <c r="G3" s="34" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H3" s="34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="43">
+      <c r="B4" s="4">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45" t="s">
+      <c r="D4" s="24"/>
+      <c r="E4" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H4" s="47"/>
+      <c r="G4" s="50" t="s">
+        <v>118</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="43">
+      <c r="B5" s="4">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="44" t="s">
+      <c r="C5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="46" t="s">
+      <c r="F5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="H5" s="47"/>
+      <c r="G5" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -1166,8 +1171,8 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
@@ -1187,10 +1192,10 @@
         <v>69</v>
       </c>
       <c r="G7" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H7" s="35" t="s">
         <v>96</v>
-      </c>
-      <c r="H7" s="35" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -1214,7 +1219,7 @@
         <v>75</v>
       </c>
       <c r="H8" s="35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -1238,7 +1243,7 @@
         <v>73</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -1262,7 +1267,7 @@
         <v>74</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -1276,15 +1281,15 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="13" t="s">
         <v>11</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1296,11 +1301,11 @@
       <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="H12" s="38" t="s">
-        <v>112</v>
+      <c r="G12" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="35" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -1320,11 +1325,11 @@
       <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>116</v>
+      <c r="G13" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -1344,11 +1349,11 @@
       <c r="F14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>115</v>
+      <c r="G14" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="H14" s="52" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -1367,10 +1372,10 @@
         <v>89</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H15" s="35" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -1384,15 +1389,15 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="49">
+      <c r="B17" s="45">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="46" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6"/>
@@ -1402,19 +1407,19 @@
       <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="36" t="s">
+      <c r="G17" s="52" t="s">
         <v>91</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="49">
+      <c r="B18" s="45">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="50" t="s">
+      <c r="C18" s="46" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="6"/>
@@ -1424,59 +1429,59 @@
       <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="52" t="s">
         <v>92</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="49">
+      <c r="B19" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="50" t="s">
+      <c r="C19" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="51" t="s">
+      <c r="D19" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="51" t="s">
+      <c r="E19" s="47" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="52" t="s">
+      <c r="F19" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="36" t="s">
-        <v>93</v>
+      <c r="G19" s="52" t="s">
+        <v>115</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="49">
+      <c r="B20" s="45">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="50" t="s">
+      <c r="C20" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="51" t="s">
+      <c r="D20" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="51" t="s">
+      <c r="E20" s="47" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="52" t="s">
+      <c r="F20" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="36" t="s">
-        <v>120</v>
+      <c r="G20" s="52" t="s">
+        <v>113</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -1490,30 +1495,28 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="48"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="49">
+      <c r="B22" s="53">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="50" t="s">
+      <c r="C22" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="52" t="s">
+      <c r="F22" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>123</v>
-      </c>
+      <c r="G22" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H22" s="57"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
@@ -1534,15 +1537,15 @@
         <v>59</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="43">
+      <c r="B24" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="44" t="s">
+      <c r="C24" s="23" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="40"/>
@@ -1552,17 +1555,17 @@
       <c r="F24" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H24" s="53"/>
+      <c r="G24" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" s="43"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="43">
+      <c r="B25" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="23" t="s">
         <v>22</v>
       </c>
       <c r="D25" s="40"/>
@@ -1572,10 +1575,10 @@
       <c r="F25" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="53" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="53"/>
+      <c r="G25" s="43" t="s">
+        <v>108</v>
+      </c>
+      <c r="H25" s="43"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
@@ -1588,94 +1591,94 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="48"/>
-      <c r="H26" s="48"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="54">
+      <c r="B27" s="22">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="55" t="s">
+      <c r="C27" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="56"/>
-      <c r="E27" s="56" t="s">
+      <c r="D27" s="24"/>
+      <c r="E27" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H27" s="53"/>
+      <c r="G27" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="43"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="54">
+      <c r="B28" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H28" s="53"/>
+      <c r="G28" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="43"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="54">
+      <c r="B29" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="55" t="s">
+      <c r="C29" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="56" t="s">
+      <c r="E29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="25" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H29" s="53"/>
+      <c r="G29" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="43"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="54">
+      <c r="B30" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="55" t="s">
+      <c r="C30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="56" t="s">
+      <c r="E30" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H30" s="53"/>
+      <c r="G30" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H30" s="43"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
@@ -1688,64 +1691,64 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="54">
+      <c r="B32" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="55" t="s">
+      <c r="C32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H32" s="53"/>
+      <c r="G32" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="43"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="54">
+      <c r="B33" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="55" t="s">
+      <c r="C33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="56"/>
-      <c r="E33" s="56"/>
-      <c r="F33" s="57"/>
-      <c r="G33" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H33" s="53"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H33" s="43"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="54">
+      <c r="B34" s="22">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="55" t="s">
+      <c r="C34" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="56"/>
-      <c r="E34" s="56" t="s">
+      <c r="D34" s="24"/>
+      <c r="E34" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="57" t="s">
+      <c r="F34" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="53" t="s">
-        <v>107</v>
-      </c>
-      <c r="H34" s="53"/>
+      <c r="G34" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="43"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B35" s="18">
@@ -1762,11 +1765,11 @@
       <c r="F35" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="58" t="s">
+      <c r="G35" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="58" t="s">
-        <v>125</v>
+      <c r="H35" s="49" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
@@ -1781,73 +1784,73 @@
       <c r="E36" s="28"/>
       <c r="F36" s="29"/>
       <c r="G36" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="H36" s="37" t="s">
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="22">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="42" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="42"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="22">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="42" t="s">
         <v>103</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="43">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="C37" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="45"/>
-      <c r="E37" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="54">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C38" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="57"/>
-      <c r="G38" s="53"/>
-      <c r="H38" s="53"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="54">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C39" s="55" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="56"/>
-      <c r="E39" s="56"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="42" t="s">
-        <v>105</v>
-      </c>
-      <c r="H39" s="42"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="54">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C40" s="55" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="56"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="42" t="s">
-        <v>104</v>
       </c>
       <c r="H40" s="42"/>
     </row>
@@ -1862,8 +1865,8 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="48"/>
-      <c r="H41" s="48"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="22">
@@ -1893,7 +1896,7 @@
       <c r="E43" s="32"/>
       <c r="F43" s="33"/>
       <c r="G43" s="39" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H43" s="39"/>
     </row>

--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B01D3D6-E2EB-C24F-9ED4-164D9D7FF2AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB5C05-2FF9-0E4B-9671-26B17000E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -367,6 +367,9 @@
     <t>Purpose</t>
   </si>
   <si>
+    <t>RFOUT</t>
+  </si>
+  <si>
     <t>JS8 LED On</t>
   </si>
   <si>
@@ -391,12 +394,6 @@
     <t>Audio FSK In</t>
   </si>
   <si>
-    <t>ddsPIOTX</t>
-  </si>
-  <si>
-    <t>ddsPIORX</t>
-  </si>
-  <si>
     <t>JS8LED</t>
   </si>
   <si>
@@ -415,10 +412,13 @@
     <t>RF Signal Out (TX)</t>
   </si>
   <si>
-    <t>RF Signal Out (RX)</t>
-  </si>
-  <si>
     <t>Beacon select Jumper</t>
+  </si>
+  <si>
+    <t>RXOSC</t>
+  </si>
+  <si>
+    <t>RF Signal (RX)</t>
   </si>
 </sst>
 </file>
@@ -689,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -780,7 +780,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1078,7 +1077,7 @@
   <dimension ref="B2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1117,11 +1116,11 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
+      <c r="B4" s="52">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="53" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="24"/>
@@ -1131,19 +1130,17 @@
       <c r="F4" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>125</v>
-      </c>
+      <c r="G4" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="43"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+      <c r="B5" s="52">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="53" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="24"/>
@@ -1153,12 +1150,10 @@
       <c r="F5" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>126</v>
-      </c>
+      <c r="G5" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="43"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -1301,11 +1296,11 @@
       <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="51" t="s">
-        <v>120</v>
+      <c r="G12" s="50" t="s">
+        <v>119</v>
       </c>
       <c r="H12" s="35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -1325,19 +1320,19 @@
       <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="51" t="s">
-        <v>124</v>
+      <c r="G13" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="12">
+      <c r="B14" s="45">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="46" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1349,11 +1344,11 @@
       <c r="F14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="52" t="s">
+      <c r="G14" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="H14" s="51" t="s">
         <v>122</v>
-      </c>
-      <c r="H14" s="52" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -1407,11 +1402,11 @@
       <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="52" t="s">
+      <c r="G17" s="51" t="s">
         <v>91</v>
       </c>
       <c r="H17" s="36" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
@@ -1429,11 +1424,11 @@
       <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="52" t="s">
+      <c r="G18" s="51" t="s">
         <v>92</v>
       </c>
       <c r="H18" s="36" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
@@ -1453,11 +1448,11 @@
       <c r="F19" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="52" t="s">
-        <v>115</v>
+      <c r="G19" s="51" t="s">
+        <v>116</v>
       </c>
       <c r="H19" s="36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
@@ -1477,11 +1472,11 @@
       <c r="F20" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="52" t="s">
-        <v>113</v>
+      <c r="G20" s="51" t="s">
+        <v>114</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
@@ -1499,24 +1494,24 @@
       <c r="H21" s="44"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="53">
+      <c r="B22" s="52">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55" t="s">
+      <c r="D22" s="54"/>
+      <c r="E22" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="56" t="s">
+      <c r="F22" s="55" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="57"/>
+      <c r="H22" s="56"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
@@ -1537,7 +1532,7 @@
         <v>59</v>
       </c>
       <c r="H23" s="35" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
@@ -1595,24 +1590,26 @@
       <c r="H26" s="44"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="22">
+      <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="25" t="s">
+      <c r="F27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="H27" s="43"/>
+      <c r="G27" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="38" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="22">
@@ -1637,26 +1634,28 @@
       <c r="H28" s="43"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="22">
+      <c r="B29" s="4">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="25" t="s">
+      <c r="F29" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="43"/>
+      <c r="G29" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="38" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B30" s="22">
@@ -1769,7 +1768,7 @@
         <v>52</v>
       </c>
       <c r="H35" s="49" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">

--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56FB5C05-2FF9-0E4B-9671-26B17000E9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34EEC12-91FD-5D4A-A096-70AC84276118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rp2040 PinOut" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
   <si>
     <t>Pin</t>
   </si>
@@ -391,9 +392,6 @@
     <t>ATU Enable pulse</t>
   </si>
   <si>
-    <t>Audio FSK In</t>
-  </si>
-  <si>
     <t>JS8LED</t>
   </si>
   <si>
@@ -413,18 +411,15 @@
   </si>
   <si>
     <t>Beacon select Jumper</t>
-  </si>
-  <si>
-    <t>RXOSC</t>
-  </si>
-  <si>
-    <t>RF Signal (RX)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -449,7 +444,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -504,6 +499,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -689,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -726,12 +727,6 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -750,14 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -765,7 +752,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
@@ -779,7 +765,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -791,6 +776,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1077,7 +1089,7 @@
   <dimension ref="B2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1108,52 +1120,52 @@
       <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="G3" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="34" t="s">
+      <c r="H3" s="28" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="52">
+      <c r="B4" s="44">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="25" t="s">
+      <c r="F4" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="G4" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="43"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="52">
+      <c r="B5" s="44">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="F5" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="43" t="s">
+      <c r="G5" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H5" s="43"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -1166,8 +1178,8 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
@@ -1186,10 +1198,10 @@
       <c r="F7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="35" t="s">
+      <c r="G7" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="29" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1210,10 +1222,10 @@
       <c r="F8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="35" t="s">
+      <c r="G8" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="29" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1234,10 +1246,10 @@
       <c r="F9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="35" t="s">
+      <c r="G9" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="29" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1258,10 +1270,10 @@
       <c r="F10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="35" t="s">
+      <c r="G10" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="29" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1276,8 +1288,8 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
@@ -1296,10 +1308,10 @@
       <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="H12" s="35" t="s">
+      <c r="G12" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="H12" s="29" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1320,19 +1332,19 @@
       <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="50" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="50" t="s">
-        <v>123</v>
+      <c r="G13" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="45">
+      <c r="B14" s="38">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="39" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1344,11 +1356,11 @@
       <c r="F14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="51" t="s">
+      <c r="G14" s="43" t="s">
+        <v>120</v>
+      </c>
+      <c r="H14" s="43" t="s">
         <v>121</v>
-      </c>
-      <c r="H14" s="51" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -1366,10 +1378,10 @@
       <c r="F15" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="35" t="s">
+      <c r="G15" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="29" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1384,15 +1396,15 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="45">
+      <c r="B17" s="38">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="46" t="s">
+      <c r="C17" s="39" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6"/>
@@ -1402,19 +1414,19 @@
       <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="43" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="30" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="45">
+      <c r="B18" s="38">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="46" t="s">
+      <c r="C18" s="39" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="6"/>
@@ -1424,58 +1436,58 @@
       <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="51" t="s">
+      <c r="G18" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="36" t="s">
+      <c r="H18" s="30" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="45">
+      <c r="B19" s="38">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="46" t="s">
+      <c r="C19" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="47" t="s">
+      <c r="E19" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="48" t="s">
+      <c r="F19" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="51" t="s">
+      <c r="G19" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="36" t="s">
-        <v>125</v>
+      <c r="H19" s="30" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="45">
+      <c r="B20" s="38">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="46" t="s">
+      <c r="C20" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="47" t="s">
+      <c r="D20" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="47" t="s">
+      <c r="E20" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="48" t="s">
+      <c r="F20" s="41" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="51" t="s">
+      <c r="G20" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="36" t="s">
+      <c r="H20" s="30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1490,28 +1502,28 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="52">
+      <c r="B22" s="44">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="53" t="s">
+      <c r="C22" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54" t="s">
+      <c r="D22" s="46"/>
+      <c r="E22" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="55" t="s">
+      <c r="F22" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="43" t="s">
+      <c r="G22" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="56"/>
+      <c r="H22" s="48"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
@@ -1528,52 +1540,52 @@
       <c r="F23" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="35" t="s">
+      <c r="G23" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="29" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="22">
+      <c r="B24" s="20">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="40"/>
-      <c r="E24" s="40" t="s">
+      <c r="D24" s="33"/>
+      <c r="E24" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="41" t="s">
+      <c r="F24" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="43" t="s">
+      <c r="G24" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="43"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="22">
+      <c r="B25" s="20">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="33"/>
+      <c r="E25" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="41" t="s">
+      <c r="F25" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="43" t="s">
+      <c r="G25" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="43"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
@@ -1586,8 +1598,8 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
@@ -1604,80 +1616,78 @@
       <c r="F27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="38" t="s">
+      <c r="G27" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="38" t="s">
-        <v>124</v>
+      <c r="H27" s="32" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="22">
+      <c r="B28" s="20">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="25" t="s">
+      <c r="F28" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="43" t="s">
+      <c r="G28" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="43"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="4">
+      <c r="B29" s="44">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="6" t="s">
+      <c r="D29" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>127</v>
-      </c>
+      <c r="G29" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="22">
+      <c r="B30" s="20">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="C30" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="25" t="s">
+      <c r="F30" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="43" t="s">
+      <c r="G30" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="43"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
@@ -1690,168 +1700,168 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="44"/>
-      <c r="H31" s="44"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="22">
+      <c r="B32" s="20">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24" t="s">
+      <c r="D32" s="22"/>
+      <c r="E32" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="25" t="s">
+      <c r="F32" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="43" t="s">
+      <c r="G32" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="43"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="23" t="s">
+      <c r="C33" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="25"/>
-      <c r="G33" s="43" t="s">
+      <c r="D33" s="22"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="43"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="22">
+      <c r="B34" s="20">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="23" t="s">
+      <c r="C34" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24" t="s">
+      <c r="D34" s="22"/>
+      <c r="E34" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="25" t="s">
+      <c r="F34" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="43" t="s">
+      <c r="G34" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="43"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="18">
+      <c r="B35" s="63">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
+      <c r="D35" s="18"/>
+      <c r="E35" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="49" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="49" t="s">
-        <v>118</v>
-      </c>
+      <c r="G35" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="26">
+      <c r="B36" s="24">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="D36" s="28"/>
-      <c r="E36" s="28"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="37" t="s">
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="27"/>
+      <c r="G36" s="31" t="s">
         <v>101</v>
       </c>
-      <c r="H36" s="37" t="s">
+      <c r="H36" s="31" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="22">
+      <c r="B37" s="20">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24" t="s">
+      <c r="D37" s="22"/>
+      <c r="E37" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="F37" s="25" t="s">
+      <c r="F37" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="G37" s="43"/>
-      <c r="H37" s="43"/>
+      <c r="G37" s="36" t="s">
+        <v>106</v>
+      </c>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="22">
+      <c r="B38" s="20">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="25"/>
-      <c r="G38" s="43"/>
-      <c r="H38" s="43"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="22">
+      <c r="B39" s="20">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="25"/>
-      <c r="G39" s="42" t="s">
+      <c r="D39" s="22"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="H39" s="42"/>
+      <c r="H39" s="35"/>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="22">
+      <c r="B40" s="20">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="42" t="s">
+      <c r="D40" s="22"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="42"/>
+      <c r="H40" s="35"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
@@ -1864,43 +1874,138 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="44"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="22">
+      <c r="B42" s="49">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="23" t="s">
+      <c r="C42" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="38" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="38"/>
+      <c r="H42" s="53"/>
     </row>
     <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="30">
+      <c r="B43" s="54">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="32"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="33"/>
-      <c r="G43" s="39" t="s">
+      <c r="D43" s="56"/>
+      <c r="E43" s="56"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="39"/>
+      <c r="H43" s="58"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="77" fitToWidth="0" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BEAE101-8E68-0948-8C36-5BC90280B6D9}">
+  <dimension ref="E2:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="61">
+        <f>E2*6.25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E3">
+        <f>E2+1</f>
+        <v>1</v>
+      </c>
+      <c r="F3" s="61">
+        <f t="shared" ref="F3:F9" si="0">E3*6.25</f>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="4" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E4">
+        <f t="shared" ref="E4:E10" si="1">E3+1</f>
+        <v>2</v>
+      </c>
+      <c r="F4" s="61">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="5" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F5" s="61">
+        <f t="shared" si="0"/>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="6" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F6" s="61">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="F7" s="61">
+        <f t="shared" si="0"/>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F8" s="61">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="F9" s="61">
+        <f t="shared" si="0"/>
+        <v>43.75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34EEC12-91FD-5D4A-A096-70AC84276118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD8054-E332-B94F-BBA3-271513EC61E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
   <si>
     <t>Pin</t>
   </si>
@@ -411,6 +411,24 @@
   </si>
   <si>
     <t>Beacon select Jumper</t>
+  </si>
+  <si>
+    <t>Analog FSK in</t>
+  </si>
+  <si>
+    <t>RXA</t>
+  </si>
+  <si>
+    <t>Digital RXA in</t>
+  </si>
+  <si>
+    <t>UART TX</t>
+  </si>
+  <si>
+    <t>UART RX</t>
+  </si>
+  <si>
+    <t>Serial port debug</t>
   </si>
 </sst>
 </file>
@@ -690,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -727,6 +745,12 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -765,6 +789,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -803,6 +828,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1089,7 +1126,7 @@
   <dimension ref="B2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B3" sqref="B3:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1120,52 +1157,56 @@
       <c r="F3" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="30" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="44">
+      <c r="B4" s="12">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="45" t="s">
+      <c r="C4" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22" t="s">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="23" t="s">
+      <c r="F4" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="36"/>
+      <c r="G4" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="31" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="44">
+      <c r="B5" s="70">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22" t="s">
+      <c r="D5" s="72"/>
+      <c r="E5" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" s="36"/>
+      <c r="G5" s="74" t="s">
+        <v>129</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
@@ -1178,8 +1219,8 @@
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
@@ -1198,10 +1239,10 @@
       <c r="F7" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G7" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="H7" s="31" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1222,10 +1263,10 @@
       <c r="F8" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G8" s="29" t="s">
+      <c r="G8" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="H8" s="31" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1246,10 +1287,10 @@
       <c r="F9" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G9" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="31" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1270,10 +1311,10 @@
       <c r="F10" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="29" t="s">
+      <c r="G10" s="31" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="H10" s="31" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1288,8 +1329,8 @@
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
@@ -1308,10 +1349,10 @@
       <c r="F12" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="42" t="s">
+      <c r="G12" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="H12" s="31" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1332,19 +1373,19 @@
       <c r="F13" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="45" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B14" s="38">
+      <c r="B14" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="41" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -1356,10 +1397,10 @@
       <c r="F14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G14" s="43" t="s">
+      <c r="G14" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="H14" s="43" t="s">
+      <c r="H14" s="46" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1378,10 +1419,10 @@
       <c r="F15" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="29" t="s">
+      <c r="G15" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="31" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1396,15 +1437,15 @@
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B17" s="38">
+      <c r="B17" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="41" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="6"/>
@@ -1414,19 +1455,19 @@
       <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G17" s="43" t="s">
+      <c r="G17" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="H17" s="30" t="s">
+      <c r="H17" s="32" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B18" s="38">
+      <c r="B18" s="40">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="41" t="s">
         <v>16</v>
       </c>
       <c r="D18" s="6"/>
@@ -1436,58 +1477,58 @@
       <c r="F18" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="G18" s="43" t="s">
+      <c r="G18" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="H18" s="30" t="s">
+      <c r="H18" s="32" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B19" s="38">
+      <c r="B19" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="39" t="s">
+      <c r="C19" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="40" t="s">
+      <c r="D19" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="41" t="s">
+      <c r="F19" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="43" t="s">
+      <c r="G19" s="46" t="s">
         <v>116</v>
       </c>
-      <c r="H19" s="30" t="s">
+      <c r="H19" s="32" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B20" s="38">
+      <c r="B20" s="40">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="39" t="s">
+      <c r="C20" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="40" t="s">
+      <c r="D20" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="40" t="s">
+      <c r="E20" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="43" t="s">
+      <c r="G20" s="46" t="s">
         <v>114</v>
       </c>
-      <c r="H20" s="30" t="s">
+      <c r="H20" s="32" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1502,28 +1543,28 @@
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="44">
+      <c r="B22" s="47">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="45" t="s">
+      <c r="C22" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46" t="s">
+      <c r="D22" s="49"/>
+      <c r="E22" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="47" t="s">
+      <c r="F22" s="50" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="36" t="s">
+      <c r="G22" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="48"/>
+      <c r="H22" s="51"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
@@ -1540,52 +1581,52 @@
       <c r="F23" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G23" s="29" t="s">
+      <c r="G23" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="H23" s="31" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="20">
+      <c r="B24" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
+      <c r="D24" s="35"/>
+      <c r="E24" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="F24" s="34" t="s">
+      <c r="F24" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G24" s="36" t="s">
+      <c r="G24" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H24" s="36"/>
+      <c r="H24" s="38"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B25" s="20">
+      <c r="B25" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33" t="s">
+      <c r="D25" s="35"/>
+      <c r="E25" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="34" t="s">
+      <c r="F25" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G25" s="36" t="s">
+      <c r="G25" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H25" s="36"/>
+      <c r="H25" s="38"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
@@ -1598,8 +1639,8 @@
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
@@ -1616,78 +1657,78 @@
       <c r="F27" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G27" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="34" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="20">
+      <c r="B28" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="22" t="s">
+      <c r="E28" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="23" t="s">
+      <c r="F28" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="36" t="s">
+      <c r="G28" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="36"/>
+      <c r="H28" s="38"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="44">
+      <c r="B29" s="47">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="G29" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="36"/>
+      <c r="H29" s="38"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="20">
+      <c r="B30" s="66">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="22" t="s">
+      <c r="E30" s="67" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="23" t="s">
+      <c r="F30" s="68" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="36" t="s">
+      <c r="G30" s="69" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="36"/>
+      <c r="H30" s="69"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
@@ -1700,168 +1741,172 @@
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
       <c r="F31" s="11"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="39"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B32" s="20">
+      <c r="B32" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22" t="s">
+      <c r="D32" s="24"/>
+      <c r="E32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="F32" s="23" t="s">
+      <c r="F32" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="G32" s="36" t="s">
+      <c r="G32" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H32" s="36"/>
+      <c r="H32" s="38"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B33" s="20">
+      <c r="B33" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="36" t="s">
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="36"/>
+      <c r="H33" s="38"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B34" s="20">
+      <c r="B34" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22" t="s">
+      <c r="D34" s="20"/>
+      <c r="E34" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="F34" s="23" t="s">
+      <c r="F34" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G34" s="36" t="s">
+      <c r="G34" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="H34" s="44" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="18">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="G35" s="44" t="s">
+        <v>52</v>
+      </c>
+      <c r="H35" s="44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B36" s="26">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D36" s="28"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="H36" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="22">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H34" s="36"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B35" s="63">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="C35" s="62" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="G35" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="36"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B36" s="24">
-        <f t="shared" si="0"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="22">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C38" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B37" s="20">
-        <f t="shared" si="0"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="25"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="22">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C39" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="F37" s="23" t="s">
-        <v>93</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="H37" s="36"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B38" s="20">
-        <f t="shared" si="0"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="25"/>
+      <c r="G39" s="37" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="37"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="22">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C40" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B39" s="20">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="35" t="s">
-        <v>104</v>
-      </c>
-      <c r="H39" s="35"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B40" s="20">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="C40" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="35" t="s">
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="25"/>
+      <c r="G40" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="35"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
@@ -1874,40 +1919,40 @@
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="49">
+      <c r="B42" s="52">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="50" t="s">
+      <c r="C42" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="52"/>
-      <c r="G42" s="59" t="s">
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="53"/>
+      <c r="H42" s="56"/>
     </row>
     <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="54">
+      <c r="B43" s="57">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="55" t="s">
+      <c r="C43" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="56"/>
-      <c r="E43" s="56"/>
-      <c r="F43" s="57"/>
-      <c r="G43" s="60" t="s">
+      <c r="D43" s="59"/>
+      <c r="E43" s="59"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="63" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="58"/>
+      <c r="H43" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1930,7 +1975,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F2" s="61">
+      <c r="F2" s="64">
         <f>E2*6.25</f>
         <v>0</v>
       </c>
@@ -1940,7 +1985,7 @@
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="64">
         <f t="shared" ref="F3:F9" si="0">E3*6.25</f>
         <v>6.25</v>
       </c>
@@ -1950,7 +1995,7 @@
         <f t="shared" ref="E4:E10" si="1">E3+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="64">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
@@ -1960,7 +2005,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="64">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
@@ -1970,7 +2015,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="64">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1980,7 +2025,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="64">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
@@ -1990,7 +2035,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="64">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
@@ -2000,7 +2045,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F9" s="61">
+      <c r="F9" s="64">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>

--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10102"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08CD8054-E332-B94F-BBA3-271513EC61E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC37A540-9102-5F45-A9D1-EEE46BBEA2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="141">
   <si>
     <t>Pin</t>
   </si>
@@ -429,6 +429,36 @@
   </si>
   <si>
     <t>Serial port debug</t>
+  </si>
+  <si>
+    <t>ADX-rp2040</t>
+  </si>
+  <si>
+    <t>Actions to take</t>
+  </si>
+  <si>
+    <t>TXLED</t>
+  </si>
+  <si>
+    <t>FT8LED</t>
+  </si>
+  <si>
+    <t>SW3 (TX)</t>
+  </si>
+  <si>
+    <t>SW1 (UP)</t>
+  </si>
+  <si>
+    <t>SW2 (DOWN)</t>
+  </si>
+  <si>
+    <t>+3.3V</t>
+  </si>
+  <si>
+    <t>Cut</t>
+  </si>
+  <si>
+    <t>Wire up</t>
   </si>
 </sst>
 </file>
@@ -436,9 +466,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +487,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -524,7 +562,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -704,11 +742,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -790,17 +843,8 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -819,27 +863,17 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1123,10 +1157,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B2:H43"/>
+  <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H43"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1138,10 +1172,12 @@
     <col min="6" max="6" width="34.33203125" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1163,8 +1199,14 @@
       <c r="H3" s="30" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J3" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="12">
         <f>1</f>
         <v>1</v>
@@ -1185,30 +1227,34 @@
       <c r="H4" s="31" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="70">
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B5" s="18">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="73" t="s">
+      <c r="F5" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="44" t="s">
         <v>129</v>
       </c>
-      <c r="H5" s="74" t="s">
+      <c r="H5" s="44" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="8">
         <f t="shared" ref="B6:B43" si="0">B5+1</f>
         <v>3</v>
@@ -1221,8 +1267,12 @@
       <c r="F6" s="11"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="61"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1245,8 +1295,12 @@
       <c r="H7" s="31" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="61"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1269,8 +1323,12 @@
       <c r="H8" s="31" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1293,8 +1351,12 @@
       <c r="H9" s="31" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J9" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="61"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1317,8 +1379,12 @@
       <c r="H10" s="31" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J10" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" s="61"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1331,8 +1397,12 @@
       <c r="F11" s="11"/>
       <c r="G11" s="39"/>
       <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J11" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K11" s="61"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1355,8 +1425,12 @@
       <c r="H12" s="31" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J12" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K12" s="61"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1379,8 +1453,12 @@
       <c r="H13" s="45" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J13" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="K13" s="61"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="40">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1403,8 +1481,12 @@
       <c r="H14" s="46" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J14" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="61"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1425,8 +1507,12 @@
       <c r="H15" s="31" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" s="61"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1439,8 +1525,12 @@
       <c r="F16" s="11"/>
       <c r="G16" s="39"/>
       <c r="H16" s="39"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J16" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="61"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="40">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1461,8 +1551,12 @@
       <c r="H17" s="32" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J17" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="K17" s="61"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="40">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1483,8 +1577,12 @@
       <c r="H18" s="32" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J18" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="K18" s="61"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="40">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1507,8 +1605,10 @@
       <c r="H19" s="32" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="40">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1531,8 +1631,10 @@
       <c r="H20" s="32" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="8">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1545,28 +1647,34 @@
       <c r="F21" s="11"/>
       <c r="G21" s="39"/>
       <c r="H21" s="39"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B22" s="47">
+      <c r="J21" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="61"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B22" s="22">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="48" t="s">
+      <c r="C22" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49" t="s">
+      <c r="D22" s="24"/>
+      <c r="E22" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="25" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="51"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H22" s="38"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B23" s="12">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1587,8 +1695,12 @@
       <c r="H23" s="31" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="K23" s="61"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B24" s="22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1607,8 +1719,14 @@
         <v>108</v>
       </c>
       <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J24" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="22">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1627,8 +1745,14 @@
         <v>108</v>
       </c>
       <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J25" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" s="63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B26" s="8">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1641,8 +1765,12 @@
       <c r="F26" s="11"/>
       <c r="G26" s="39"/>
       <c r="H26" s="39"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J26" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K26" s="61"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B27" s="4">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1663,8 +1791,12 @@
       <c r="H27" s="34" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J27" s="61"/>
+      <c r="K27" s="63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B28" s="22">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1685,52 +1817,58 @@
         <v>106</v>
       </c>
       <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B29" s="47">
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B29" s="22">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="48" t="s">
+      <c r="C29" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D29" s="49" t="s">
+      <c r="D29" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="49" t="s">
+      <c r="E29" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="25" t="s">
         <v>85</v>
       </c>
       <c r="G29" s="38" t="s">
         <v>106</v>
       </c>
       <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B30" s="66">
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B30" s="22">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="65" t="s">
+      <c r="C30" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="67" t="s">
+      <c r="D30" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="69" t="s">
+      <c r="G30" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="H30" s="69"/>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H30" s="38"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B31" s="8">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1743,8 +1881,12 @@
       <c r="F31" s="11"/>
       <c r="G31" s="39"/>
       <c r="H31" s="39"/>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J31" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K31" s="61"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B32" s="22">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1763,8 +1905,10 @@
         <v>106</v>
       </c>
       <c r="H32" s="38"/>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B33" s="22">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1779,8 +1923,10 @@
         <v>106</v>
       </c>
       <c r="H33" s="38"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B34" s="18">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1801,8 +1947,10 @@
       <c r="H34" s="44" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="18">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1823,8 +1971,14 @@
       <c r="H35" s="44" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J35" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="K35" s="63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B36" s="26">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1841,8 +1995,12 @@
       <c r="H36" s="33" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J36" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="61"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B37" s="22">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1861,8 +2019,10 @@
         <v>106</v>
       </c>
       <c r="H37" s="38"/>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B38" s="22">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1875,8 +2035,10 @@
       <c r="F38" s="25"/>
       <c r="G38" s="38"/>
       <c r="H38" s="38"/>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B39" s="22">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1891,8 +2053,12 @@
         <v>104</v>
       </c>
       <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J39" s="62" t="s">
+        <v>138</v>
+      </c>
+      <c r="K39" s="61"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B40" s="22">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1907,8 +2073,10 @@
         <v>103</v>
       </c>
       <c r="H40" s="37"/>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B41" s="8">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1921,38 +2089,46 @@
       <c r="F41" s="11"/>
       <c r="G41" s="39"/>
       <c r="H41" s="39"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B42" s="52">
+      <c r="J41" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="K41" s="61"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B42" s="47">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="53" t="s">
+      <c r="C42" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="D42" s="54"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="62" t="s">
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="50"/>
+      <c r="G42" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="H42" s="56"/>
-    </row>
-    <row r="43" spans="2:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="57">
+      <c r="H42" s="51"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+    </row>
+    <row r="43" spans="2:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="52">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="60"/>
-      <c r="G43" s="63" t="s">
+      <c r="D43" s="54"/>
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="58" t="s">
         <v>105</v>
       </c>
-      <c r="H43" s="61"/>
+      <c r="H43" s="56"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1975,7 +2151,7 @@
         <f>0</f>
         <v>0</v>
       </c>
-      <c r="F2" s="64">
+      <c r="F2" s="59">
         <f>E2*6.25</f>
         <v>0</v>
       </c>
@@ -1985,17 +2161,17 @@
         <f>E2+1</f>
         <v>1</v>
       </c>
-      <c r="F3" s="64">
+      <c r="F3" s="59">
         <f t="shared" ref="F3:F9" si="0">E3*6.25</f>
         <v>6.25</v>
       </c>
     </row>
     <row r="4" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E4">
-        <f t="shared" ref="E4:E10" si="1">E3+1</f>
+        <f t="shared" ref="E4:E9" si="1">E3+1</f>
         <v>2</v>
       </c>
-      <c r="F4" s="64">
+      <c r="F4" s="59">
         <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
@@ -2005,7 +2181,7 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="F5" s="64">
+      <c r="F5" s="59">
         <f t="shared" si="0"/>
         <v>18.75</v>
       </c>
@@ -2015,7 +2191,7 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="F6" s="64">
+      <c r="F6" s="59">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2025,7 +2201,7 @@
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="F7" s="64">
+      <c r="F7" s="59">
         <f t="shared" si="0"/>
         <v>31.25</v>
       </c>
@@ -2035,7 +2211,7 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="F8" s="64">
+      <c r="F8" s="59">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
@@ -2045,7 +2221,7 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F9" s="59">
         <f t="shared" si="0"/>
         <v>43.75</v>
       </c>

--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC37A540-9102-5F45-A9D1-EEE46BBEA2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F2C63C-8623-644B-B11E-A02655A941FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1159,8 +1159,8 @@
   </sheetPr>
   <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8F2C63C-8623-644B-B11E-A02655A941FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A928D1E-B09A-3E44-81EE-8F77A862B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
   <si>
     <t>Pin</t>
   </si>
@@ -1948,7 +1948,9 @@
         <v>127</v>
       </c>
       <c r="J34" s="61"/>
-      <c r="K34" s="61"/>
+      <c r="K34" s="63" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B35" s="18">

--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A928D1E-B09A-3E44-81EE-8F77A862B278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCF783-2CD8-F64F-B55E-B888A119A523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
   <si>
     <t>Pin</t>
   </si>
@@ -411,9 +411,6 @@
   </si>
   <si>
     <t>Beacon select Jumper</t>
-  </si>
-  <si>
-    <t>Analog FSK in</t>
   </si>
   <si>
     <t>RXA</t>
@@ -761,7 +758,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -874,6 +871,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,7 +1167,7 @@
   <dimension ref="B2:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K43"/>
+      <selection activeCell="B3" sqref="B3:H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1200,10 +1207,10 @@
         <v>109</v>
       </c>
       <c r="J3" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="K3" s="60" t="s">
         <v>131</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
@@ -1222,10 +1229,10 @@
         <v>90</v>
       </c>
       <c r="G4" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
@@ -1246,10 +1253,10 @@
         <v>90</v>
       </c>
       <c r="G5" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="44" t="s">
         <v>129</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>130</v>
       </c>
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
@@ -1324,7 +1331,7 @@
         <v>97</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K8" s="61"/>
     </row>
@@ -1352,7 +1359,7 @@
         <v>98</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K9" s="61"/>
     </row>
@@ -1482,7 +1489,7 @@
         <v>121</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K14" s="61"/>
     </row>
@@ -1552,7 +1559,7 @@
         <v>112</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K17" s="61"/>
     </row>
@@ -1578,7 +1585,7 @@
         <v>113</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="K18" s="61"/>
     </row>
@@ -1723,7 +1730,7 @@
         <v>47</v>
       </c>
       <c r="K24" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -1749,7 +1756,7 @@
         <v>48</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -1793,7 +1800,7 @@
       </c>
       <c r="J27" s="61"/>
       <c r="K27" s="63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -1942,42 +1949,39 @@
         <v>71</v>
       </c>
       <c r="G34" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" s="44" t="s">
         <v>126</v>
-      </c>
-      <c r="H34" s="44" t="s">
-        <v>127</v>
       </c>
       <c r="J34" s="61"/>
       <c r="K34" s="63" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B35" s="18">
+      <c r="B35" s="64">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="C35" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20" t="s">
+      <c r="D35" s="66"/>
+      <c r="E35" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="F35" s="21" t="s">
+      <c r="F35" s="67" t="s">
         <v>76</v>
       </c>
-      <c r="G35" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="H35" s="44" t="s">
-        <v>125</v>
-      </c>
-      <c r="J35" s="19" t="s">
-        <v>52</v>
-      </c>
+      <c r="G35" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="68"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="65"/>
       <c r="K35" s="63" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -2056,7 +2060,7 @@
       </c>
       <c r="H39" s="37"/>
       <c r="J39" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K39" s="61"/>
     </row>

--- a/doc/ADX-ddsPIO_pinout.xlsx
+++ b/doc/ADX-ddsPIO_pinout.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/PCOLLA/Documents/GitHub/ADX-ddsPIO/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DCF783-2CD8-F64F-B55E-B888A119A523}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29C724CB-779D-A94F-AD62-C61A67032B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1320" yWindow="760" windowWidth="26700" windowHeight="16740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="137">
   <si>
     <t>Pin</t>
   </si>
@@ -320,9 +320,6 @@
     <t>[PDX+] ¿SWR Analog?</t>
   </si>
   <si>
-    <t>CAL (out)</t>
-  </si>
-  <si>
     <t xml:space="preserve">RXSW </t>
   </si>
   <si>
@@ -338,9 +335,6 @@
     <t>FT4 Led On</t>
   </si>
   <si>
-    <t>Calibration Clock</t>
-  </si>
-  <si>
     <t>(A) GND</t>
   </si>
   <si>
@@ -419,15 +413,6 @@
     <t>Digital RXA in</t>
   </si>
   <si>
-    <t>UART TX</t>
-  </si>
-  <si>
-    <t>UART RX</t>
-  </si>
-  <si>
-    <t>Serial port debug</t>
-  </si>
-  <si>
     <t>ADX-rp2040</t>
   </si>
   <si>
@@ -456,6 +441,12 @@
   </si>
   <si>
     <t>Wire up</t>
+  </si>
+  <si>
+    <t>TXA</t>
+  </si>
+  <si>
+    <t>Driver Enable</t>
   </si>
 </sst>
 </file>
@@ -758,7 +749,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -881,6 +872,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1167,7 +1167,7 @@
   <dimension ref="B2:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H43"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1201,63 +1201,59 @@
         <v>72</v>
       </c>
       <c r="G3" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="H3" s="30" t="s">
         <v>107</v>
       </c>
-      <c r="H3" s="30" t="s">
-        <v>109</v>
-      </c>
       <c r="J3" s="60" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="K3" s="60" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B4" s="12">
+      <c r="B4" s="70">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="72"/>
+      <c r="E4" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="73" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="31" t="s">
-        <v>129</v>
-      </c>
+      <c r="G4" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H4" s="74"/>
       <c r="J4" s="61"/>
       <c r="K4" s="61"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B5" s="18">
+      <c r="B5" s="64">
         <f>B4+1</f>
         <v>2</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="65" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20" t="s">
+      <c r="D5" s="66"/>
+      <c r="E5" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="21" t="s">
+      <c r="F5" s="67" t="s">
         <v>90</v>
       </c>
-      <c r="G5" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>129</v>
-      </c>
+      <c r="G5" s="68" t="s">
+        <v>106</v>
+      </c>
+      <c r="H5" s="68"/>
       <c r="J5" s="61"/>
       <c r="K5" s="61"/>
     </row>
@@ -1297,10 +1293,10 @@
         <v>69</v>
       </c>
       <c r="G7" s="31" t="s">
+        <v>94</v>
+      </c>
+      <c r="H7" s="31" t="s">
         <v>95</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>96</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>49</v>
@@ -1328,10 +1324,10 @@
         <v>75</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J8" s="13" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="K8" s="61"/>
     </row>
@@ -1356,10 +1352,10 @@
         <v>73</v>
       </c>
       <c r="H9" s="31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J9" s="13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="K9" s="61"/>
     </row>
@@ -1384,7 +1380,7 @@
         <v>74</v>
       </c>
       <c r="H10" s="31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J10" s="13" t="s">
         <v>74</v>
@@ -1427,13 +1423,13 @@
         <v>69</v>
       </c>
       <c r="G12" s="45" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H12" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K12" s="61"/>
     </row>
@@ -1455,13 +1451,13 @@
         <v>69</v>
       </c>
       <c r="G13" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H13" s="45" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K13" s="61"/>
     </row>
@@ -1483,13 +1479,13 @@
         <v>88</v>
       </c>
       <c r="G14" s="46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J14" s="41" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="K14" s="61"/>
     </row>
@@ -1509,13 +1505,13 @@
         <v>89</v>
       </c>
       <c r="G15" s="31" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="H15" s="31" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="J15" s="13" t="s">
-        <v>46</v>
+        <v>135</v>
       </c>
       <c r="K15" s="61"/>
     </row>
@@ -1556,10 +1552,10 @@
         <v>91</v>
       </c>
       <c r="H17" s="32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="J17" s="41" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K17" s="61"/>
     </row>
@@ -1582,10 +1578,10 @@
         <v>92</v>
       </c>
       <c r="H18" s="32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J18" s="41" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="K18" s="61"/>
     </row>
@@ -1607,10 +1603,10 @@
         <v>78</v>
       </c>
       <c r="G19" s="46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="H19" s="32" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J19" s="61"/>
       <c r="K19" s="61"/>
@@ -1633,10 +1629,10 @@
         <v>79</v>
       </c>
       <c r="G20" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H20" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J20" s="61"/>
       <c r="K20" s="61"/>
@@ -1660,24 +1656,26 @@
       <c r="K21" s="61"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="22">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="25" t="s">
+      <c r="F22" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="G22" s="38" t="s">
+      <c r="G22" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="H22" s="38"/>
+      <c r="H22" s="34" t="s">
+        <v>121</v>
+      </c>
       <c r="J22" s="61"/>
       <c r="K22" s="61"/>
     </row>
@@ -1700,7 +1698,7 @@
         <v>59</v>
       </c>
       <c r="H23" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>59</v>
@@ -1723,14 +1721,14 @@
         <v>70</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H24" s="38"/>
       <c r="J24" s="61" t="s">
         <v>47</v>
       </c>
       <c r="K24" s="63" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
@@ -1749,14 +1747,14 @@
         <v>70</v>
       </c>
       <c r="G25" s="38" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H25" s="38"/>
       <c r="J25" s="61" t="s">
         <v>48</v>
       </c>
       <c r="K25" s="63" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
@@ -1778,29 +1776,27 @@
       <c r="K26" s="61"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B27" s="4">
+      <c r="B27" s="70">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="D27" s="72"/>
+      <c r="E27" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="73" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="34" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>123</v>
-      </c>
+      <c r="G27" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="74"/>
       <c r="J27" s="61"/>
       <c r="K27" s="63" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
@@ -1821,7 +1817,7 @@
         <v>84</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H28" s="38"/>
       <c r="J28" s="61"/>
@@ -1845,7 +1841,7 @@
         <v>85</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H29" s="38"/>
       <c r="J29" s="61"/>
@@ -1869,7 +1865,7 @@
         <v>86</v>
       </c>
       <c r="G30" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H30" s="38"/>
       <c r="J30" s="61"/>
@@ -1909,7 +1905,7 @@
         <v>87</v>
       </c>
       <c r="G32" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H32" s="38"/>
       <c r="J32" s="61"/>
@@ -1927,7 +1923,7 @@
       <c r="E33" s="24"/>
       <c r="F33" s="25"/>
       <c r="G33" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H33" s="38"/>
       <c r="J33" s="61"/>
@@ -1949,14 +1945,14 @@
         <v>71</v>
       </c>
       <c r="G34" s="44" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H34" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="J34" s="61"/>
       <c r="K34" s="63" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.2">
@@ -1975,13 +1971,13 @@
         <v>76</v>
       </c>
       <c r="G35" s="68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H35" s="68"/>
       <c r="I35" s="69"/>
       <c r="J35" s="65"/>
       <c r="K35" s="63" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.2">
@@ -1996,10 +1992,10 @@
       <c r="E36" s="28"/>
       <c r="F36" s="29"/>
       <c r="G36" s="33" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J36" s="27" t="s">
         <v>31</v>
@@ -2022,7 +2018,7 @@
         <v>93</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H37" s="38"/>
       <c r="J37" s="61"/>
@@ -2056,11 +2052,11 @@
       <c r="E39" s="24"/>
       <c r="F39" s="25"/>
       <c r="G39" s="37" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H39" s="37"/>
       <c r="J39" s="62" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="K39" s="61"/>
     </row>
@@ -2076,7 +2072,7 @@
       <c r="E40" s="24"/>
       <c r="F40" s="25"/>
       <c r="G40" s="37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H40" s="37"/>
       <c r="J40" s="61"/>
@@ -2130,7 +2126,7 @@
       <c r="E43" s="54"/>
       <c r="F43" s="55"/>
       <c r="G43" s="58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H43" s="56"/>
       <c r="J43" s="61"/>
